--- a/test_datas/testCase.xlsx
+++ b/test_datas/testCase.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView activeTab="4" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="9765" windowWidth="24000"/>
+    <workbookView activeTab="7" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="9765" windowWidth="24000"/>
   </bookViews>
   <sheets>
     <sheet name="register" sheetId="1" state="visible" r:id="rId1"/>
@@ -12,6 +12,8 @@
     <sheet name="withdraw" sheetId="4" state="visible" r:id="rId4"/>
     <sheet name="addLoan" sheetId="5" state="visible" r:id="rId5"/>
     <sheet name="bidLoan" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="audit" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet name="getInvestsByMemberId" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="144525" fullCalcOnLoad="1"/>
@@ -19,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="190">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="221">
   <si>
     <t>case_id</t>
   </si>
@@ -318,7 +320,7 @@
     <t>{"code": "20119", "data": null, "status": 1, "msg": "余额不足，请修改提现额度"}</t>
   </si>
   <si>
-    <t>{"status": 1, "code": "10001", "msg": "登录成功", "data": null}</t>
+    <t>{"msg": "登录成功", "code": "10001", "status": 1, "data": null}</t>
   </si>
   <si>
     <t>正常新建项目</t>
@@ -330,7 +332,7 @@
     <t>{"memberId":${user_id},"title":"借款上柠檬班学自动化","amount":"10000000","loanRate":"15","loanTerm":"2","loanDateType":"0","repaymemtWay":"4","biddingDays":"2"}</t>
   </si>
   <si>
-    <t>{"code": "10001", "msg": "加标成功", "status": 1, "data": null}</t>
+    <t>{"msg": "加标成功", "code": "10001", "status": 1, "data": null}</t>
   </si>
   <si>
     <t>用户id为空</t>
@@ -339,7 +341,7 @@
     <t>{"memberId":"","title":"借款买房","amount":"100000","loanRate":"15","loanTerm":"2","loanDateType":"0","repaymemtWay":"4","biddingDays":"2"}</t>
   </si>
   <si>
-    <t>{"code": "20103", "msg": "所有参数不能为空", "status": 0, "data": null}</t>
+    <t>{"msg": "所有参数不能为空", "code": "20103", "status": 0, "data": null}</t>
   </si>
   <si>
     <t>借款标题为空</t>
@@ -390,7 +392,7 @@
     <t>{"memberId":"-1111404","title":"借款买房","amount":"100000","loanRate":"15","loanTerm":"2","loanDateType":"0","repaymemtWay":"4","biddingDays":"2"}</t>
   </si>
   <si>
-    <t>{"code": "20104", "msg": "参数错误：用户ID memberId必须是正整数", "status": 0, "data": null}</t>
+    <t>{"msg": "参数错误：用户ID memberId必须是正整数", "code": "20104", "status": 0, "data": null}</t>
   </si>
   <si>
     <t>用户id不存在</t>
@@ -399,7 +401,7 @@
     <t>{"memberId":"1111000000404","title":"借款买房","amount":"100000","loanRate":"15","loanTerm":"2","loanDateType":"0","repaymemtWay":"4","biddingDays":"2"}</t>
   </si>
   <si>
-    <t>{"code": "20109", "msg": "请根据数值参数的类型对应输入合法的数字", "status": 0, "data": null}</t>
+    <t>{"msg": "请根据数值参数的类型对应输入合法的数字", "code": "20109", "status": 0, "data": null}</t>
   </si>
   <si>
     <t>借款金额小于1000</t>
@@ -414,7 +416,7 @@
     <t>{"memberId":${user_id},"title":"借款买房","amount":"1001","loanRate":"15","loanTerm":"2","loanDateType":"0","repaymemtWay":"4","biddingDays":"2"}</t>
   </si>
   <si>
-    <t>{"code": "20106", "msg": "参数错误：借款金额amount必须为大于1000并能被100整除的正整数", "status": 0, "data": null}</t>
+    <t>{"msg": "参数错误：借款金额amount必须为大于1000并能被100整除的正整数", "code": "20106", "status": 0, "data": null}</t>
   </si>
   <si>
     <t>借款金额为负数</t>
@@ -429,7 +431,7 @@
     <t>{"memberId":${user_id},"title":"借款买房","amount":"100000","loanRate":"25","loanTerm":"2","loanDateType":"0","repaymemtWay":"4","biddingDays":"2"}</t>
   </si>
   <si>
-    <t>{"code": "20107", "msg": "参数错误：借款利率loanRate值必须大于0小于或等于24", "status": 0, "data": null}</t>
+    <t>{"msg": "参数错误：借款利率loanRate值必须大于0小于或等于24", "code": "20107", "status": 0, "data": null}</t>
   </si>
   <si>
     <t>借款利率为0</t>
@@ -444,7 +446,7 @@
     <t>{"memberId":${user_id},"title":"借款买房","amount":"100000","loanRate":"15","loanTerm":"2","loanDateType":"1","repaymemtWay":"4","biddingDays":"2"}</t>
   </si>
   <si>
-    <t>{"code": "20108", "msg": "参数错误：借款日期类型loanDateType只能为0,2,4", "status": 0, "data": null}</t>
+    <t>{"msg": "参数错误：借款日期类型loanDateType只能为0,2,4", "code": "20108", "status": 0, "data": null}</t>
   </si>
   <si>
     <t>借款利率输入：15%</t>
@@ -570,25 +572,118 @@
     <t>{"memberId":${user_id},"password":${pwd},"loanId":${Full_loanId},"amount":"200"}</t>
   </si>
   <si>
-    <t>{"status": 1, "code": "10001", "msg": "加标成功", "data": null}</t>
-  </si>
-  <si>
-    <t>{"status": 0, "code": "20103", "msg": "所有参数不能为空", "data": null}</t>
-  </si>
-  <si>
-    <t>{"status": 0, "code": "20104", "msg": "参数错误：用户ID memberId必须是正整数", "data": null}</t>
-  </si>
-  <si>
-    <t>{"status": 0, "code": "20109", "msg": "请根据数值参数的类型对应输入合法的数字", "data": null}</t>
-  </si>
-  <si>
-    <t>{"status": 0, "code": "20106", "msg": "参数错误：借款金额amount必须为大于1000并能被100整除的正整数", "data": null}</t>
-  </si>
-  <si>
-    <t>{"status": 0, "code": "20107", "msg": "参数错误：借款利率loanRate值必须大于0小于或等于24", "data": null}</t>
-  </si>
-  <si>
-    <t>{"status": 0, "code": "20108", "msg": "参数错误：借款日期类型loanDateType只能为0,2,4", "data": null}</t>
+    <t>将“审核中”改为“二审中”</t>
+  </si>
+  <si>
+    <t>loan/audit</t>
+  </si>
+  <si>
+    <t>{"id":${auditLoan_id},"status":2}</t>
+  </si>
+  <si>
+    <t>{"code": "10001", "status": 1, "data": null, "msg": "更新状态成功：审核通过，当前标为二审(初审中)状态"}</t>
+  </si>
+  <si>
+    <t>将“二审中”改为“二审中”</t>
+  </si>
+  <si>
+    <t>{"id":${two_auditLoan_id},"status":2}</t>
+  </si>
+  <si>
+    <t>将“二审中”改为“三审中”</t>
+  </si>
+  <si>
+    <t>{"id":${two_auditLoan_id},"status":3}</t>
+  </si>
+  <si>
+    <t>{"code": "10001", "status": 1, "data": null, "msg": "更新状态成功：审核通过，当前标为三审(复审中)状态"}</t>
+  </si>
+  <si>
+    <t>将“三审中”改为“三审中”</t>
+  </si>
+  <si>
+    <t>{"id":${three_auditLoan_id},"status":3}</t>
+  </si>
+  <si>
+    <t>将“三审中”改为“竞标中”</t>
+  </si>
+  <si>
+    <t>{"id":${three_auditLoan_id},"status":4}</t>
+  </si>
+  <si>
+    <t>{"code": "10001", "status": 1, "data": null, "msg": "更新状态成功：竞标开始，当前标为竞标中状态"}</t>
+  </si>
+  <si>
+    <t>将“竞标中”改为“竞标中”</t>
+  </si>
+  <si>
+    <t>{"id":${compete_loan_id},"status":4}</t>
+  </si>
+  <si>
+    <t>{"code": "20207", "status": 0, "data": null, "msg": "修改失败，当前标已经是该状态"}</t>
+  </si>
+  <si>
+    <t>将“竞标中”改为“还款中”</t>
+  </si>
+  <si>
+    <t>{"id":${compete_loan_id},"status":7}</t>
+  </si>
+  <si>
+    <t>{"code": "20210", "status": 0, "data": null, "msg": "不允许直接更新项目到还款中状态，请执行生成回款计划"}</t>
+  </si>
+  <si>
+    <t>将“审核中”改为“审核不通过”</t>
+  </si>
+  <si>
+    <t>{"id":${auditLoan_id},"status":8}</t>
+  </si>
+  <si>
+    <t>{"code": "20211", "status": 0, "data": null, "msg": "当前接口暂未开放该状态值更新"}</t>
+  </si>
+  <si>
+    <t>将“二审中”改为“审核不通过”</t>
+  </si>
+  <si>
+    <t>{"id":${two_auditLoan_id},"status":8}</t>
+  </si>
+  <si>
+    <t>将“三审中”改为“审核不通过”</t>
+  </si>
+  <si>
+    <t>{"id":${three_auditLoan_id},"status":8}</t>
+  </si>
+  <si>
+    <t>将“竞标中”改为“审核不通过”</t>
+  </si>
+  <si>
+    <t>{"id":${compete_loan_id},"status":8}</t>
+  </si>
+  <si>
+    <t>状态不存在</t>
+  </si>
+  <si>
+    <t>{"id":${auditLoan_id},"status":101}</t>
+  </si>
+  <si>
+    <t>{"code": "20205", "status": 0, "data": null, "msg": "参数错误：非法status参数，状态值1-11"}</t>
+  </si>
+  <si>
+    <t>{"msg": "登录成功", "code": "10001", "data": null, "status": 1}</t>
+  </si>
+  <si>
+    <t>获取用户投资记录</t>
+  </si>
+  <si>
+    <t>invest/getInvestsByMemberId</t>
+  </si>
+  <si>
+    <t>{"memberId":${user_id}}</t>
+  </si>
+  <si>
+    <t>{"data": [{"memberId": "1111405", "amount": "9000000.00", "loanId": "8111", "isValid": "1", "id": "6032", "createTime": "2019-01-05 09:26:31.0"}, {"memberId": "1111405", "amount": "200.00", "loanId": "8111", "isValid": "1", "id": "6031", "createTime": "2019-01-05 09:26:29.0"}, {"memberId": "1111405", "amount": "9000000.00", "loanId": "8111", "isValid": "1", "id": "5847", "createTime": "2019-01-03 16:14:21.0"}, {"memberId": "1111405", "amount": "200.00", "loanId": "8111", "isValid": "1", "id": "5846", "createTime": "2019-01-03 16:14:19.0"}, {"memberId": "1111405", "amount": "9000000.00", "loanId": "8111", "isValid": "1", "id": "5845", "createTime": "2019-01-03 16:13:27.0"}, {"memberId": "1111405", "amount": "200.00", "loanId": "8111", "isValid": "1", "id": "5844", "createTime": "2019-01-03 16:13:27.0"}, {"memberId": "1111405", "amount": "200.00", "loanId": "7871", "isValid": "1", "id": "5251", "createTime": "2018-12-28 00:10:34.0"}, {"memberId": "1111405", "amount": "200.00", "loanId": "4243", "isValid": "1", "id": "5250", "createTime": "2018-12-28 00:01:18.0"}, {"memberId": "1111405", "amount": "118000.00", "loanId": "4243", "isValid": "1", "id": "5249", "createTime": "2018-12-27 23:56:15.0"}, {"memberId": "1111405", "amount": "200.00", "loanId": "4243", "isValid": "1", "id": "5248", "createTime": "2018-12-27 23:56:12.0"}, {"memberId": "1111405", "amount": "200.00", "loanId": "4243", "isValid": "1", "id": "5247", "createTime": "2018-12-27 23:52:30.0"}, {"memberId": "1111405", "amount": "200.00", "loanId": "4243", "isValid": "1", "id": "5246", "createTime": "2018-12-27 23:49:39.0"}, {"memberId": "1111405", "amount": "200.00", "loanId": "4243", "isValid": "1", "id": "5245", "createTime": "2018-12-27 23:48:13.0"}, {"memberId": "1111405", "amount": "100000.00", "loanId": "4243", "isValid": "1", "id": "5244", "createTime": "2018-12-27 23:47:46.0"}, {"memberId": "1111405", "amount": "200.00", "loanId": "4243", "isValid": "1", "id": "5243", "createTime": "2018-12-27 23:47:45.0"}, {"memberId": "1111405", "amount": "100000.00", "loanId": "4243", "isValid": "1", "id": "5242", "createTime": "2018-12-27 23:39:29.0"}, {"memberId": "1111405", "amount": "200.00", "loanId": "4243", "isValid": "1", "id": "5241", "createTime": "2018-12-27 23:39:27.0"}, {"memberId": "1111405", "amount": "100000.00", "loanId": "4243", "isValid": "1", "id": "5240", "createTime": "2018-12-27 23:35:45.0"}, {"memberId": "1111405", "amount": "200.00", "loanId": "4243", "isValid": "1", "id": "5239", "createTime": "2018-12-27 23:35:42.0"}, {"memberId": "1111405", "amount": "200.00", "loanId": "4243", "isValid": "1", "id": "5238", "createTime": "2018-12-27 23:30:57.0"}, {"memberId": "1111405", "amount": "500000.00", "loanId": "4243", "isValid": "1", "id": "5237", "createTime": "2018-12-27 23:23:58.0"}, {"memberId": "1111405", "amount": "200.00", "loanId": "4243", "isValid": "1", "id": "5236", "createTime": "2018-12-27 23:23:55.0"}], "msg": "获取用户投资列表成功", "status": 1, "code": "10001"}</t>
+  </si>
+  <si>
+    <t>{"msg": "获取用户投资列表成功", "code": "10001", "data": [{"isValid": "1", "createTime": "2019-01-05 09:26:31.0", "amount": "9000000.00", "loanId": "8111", "memberId": "1111405", "id": "6032"}, {"isValid": "1", "createTime": "2019-01-05 09:26:29.0", "amount": "200.00", "loanId": "8111", "memberId": "1111405", "id": "6031"}, {"isValid": "1", "createTime": "2019-01-03 16:14:21.0", "amount": "9000000.00", "loanId": "8111", "memberId": "1111405", "id": "5847"}, {"isValid": "1", "createTime": "2019-01-03 16:14:19.0", "amount": "200.00", "loanId": "8111", "memberId": "1111405", "id": "5846"}, {"isValid": "1", "createTime": "2019-01-03 16:13:27.0", "amount": "9000000.00", "loanId": "8111", "memberId": "1111405", "id": "5845"}, {"isValid": "1", "createTime": "2019-01-03 16:13:27.0", "amount": "200.00", "loanId": "8111", "memberId": "1111405", "id": "5844"}, {"isValid": "1", "createTime": "2018-12-28 00:10:34.0", "amount": "200.00", "loanId": "7871", "memberId": "1111405", "id": "5251"}, {"isValid": "1", "createTime": "2018-12-28 00:01:18.0", "amount": "200.00", "loanId": "4243", "memberId": "1111405", "id": "5250"}, {"isValid": "1", "createTime": "2018-12-27 23:56:15.0", "amount": "118000.00", "loanId": "4243", "memberId": "1111405", "id": "5249"}, {"isValid": "1", "createTime": "2018-12-27 23:56:12.0", "amount": "200.00", "loanId": "4243", "memberId": "1111405", "id": "5248"}, {"isValid": "1", "createTime": "2018-12-27 23:52:30.0", "amount": "200.00", "loanId": "4243", "memberId": "1111405", "id": "5247"}, {"isValid": "1", "createTime": "2018-12-27 23:49:39.0", "amount": "200.00", "loanId": "4243", "memberId": "1111405", "id": "5246"}, {"isValid": "1", "createTime": "2018-12-27 23:48:13.0", "amount": "200.00", "loanId": "4243", "memberId": "1111405", "id": "5245"}, {"isValid": "1", "createTime": "2018-12-27 23:47:46.0", "amount": "100000.00", "loanId": "4243", "memberId": "1111405", "id": "5244"}, {"isValid": "1", "createTime": "2018-12-27 23:47:45.0", "amount": "200.00", "loanId": "4243", "memberId": "1111405", "id": "5243"}, {"isValid": "1", "createTime": "2018-12-27 23:39:29.0", "amount": "100000.00", "loanId": "4243", "memberId": "1111405", "id": "5242"}, {"isValid": "1", "createTime": "2018-12-27 23:39:27.0", "amount": "200.00", "loanId": "4243", "memberId": "1111405", "id": "5241"}, {"isValid": "1", "createTime": "2018-12-27 23:35:45.0", "amount": "100000.00", "loanId": "4243", "memberId": "1111405", "id": "5240"}, {"isValid": "1", "createTime": "2018-12-27 23:35:42.0", "amount": "200.00", "loanId": "4243", "memberId": "1111405", "id": "5239"}, {"isValid": "1", "createTime": "2018-12-27 23:30:57.0", "amount": "200.00", "loanId": "4243", "memberId": "1111405", "id": "5238"}, {"isValid": "1", "createTime": "2018-12-27 23:23:58.0", "amount": "500000.00", "loanId": "4243", "memberId": "1111405", "id": "5237"}, {"isValid": "1", "createTime": "2018-12-27 23:23:55.0", "amount": "200.00", "loanId": "4243", "memberId": "1111405", "id": "5236"}], "status": 1}</t>
   </si>
 </sst>
 </file>
@@ -628,7 +723,44 @@
     <font>
       <name val="宋体"/>
       <charset val="0"/>
+      <color rgb="FFFF0000"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
       <color theme="1"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <b val="1"/>
+      <color rgb="FF3F3F3F"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <color rgb="FF9C0006"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <b val="1"/>
+      <color rgb="FFFFFFFF"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <color rgb="FF3F3F76"/>
       <sz val="11"/>
       <scheme val="minor"/>
     </font>
@@ -642,23 +774,9 @@
     <font>
       <name val="宋体"/>
       <charset val="0"/>
-      <color rgb="FF3F3F76"/>
+      <b val="1"/>
+      <color theme="1"/>
       <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <color rgb="FF9C0006"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <b val="1"/>
-      <color theme="3"/>
-      <sz val="15"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -671,9 +789,10 @@
     </font>
     <font>
       <name val="宋体"/>
-      <charset val="0"/>
-      <color rgb="FFFF0000"/>
-      <sz val="11"/>
+      <charset val="134"/>
+      <b val="1"/>
+      <color theme="3"/>
+      <sz val="18"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -681,7 +800,7 @@
       <charset val="134"/>
       <b val="1"/>
       <color theme="3"/>
-      <sz val="18"/>
+      <sz val="15"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -703,15 +822,7 @@
     <font>
       <name val="宋体"/>
       <charset val="0"/>
-      <color rgb="FFFA7D00"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <b val="1"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF9C6500"/>
       <sz val="11"/>
       <scheme val="minor"/>
     </font>
@@ -726,16 +837,7 @@
     <font>
       <name val="宋体"/>
       <charset val="0"/>
-      <b val="1"/>
-      <color rgb="FFFFFFFF"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <b val="1"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <sz val="11"/>
       <scheme val="minor"/>
     </font>
@@ -743,13 +845,6 @@
       <name val="宋体"/>
       <charset val="0"/>
       <color rgb="FF006100"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <color rgb="FF9C6500"/>
       <sz val="11"/>
       <scheme val="minor"/>
     </font>
@@ -763,7 +858,169 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -775,175 +1032,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1012,30 +1107,6 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
@@ -1046,24 +1117,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1098,6 +1151,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -1108,6 +1176,33 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0">
@@ -1116,10 +1211,10 @@
     <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="164">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="8" fontId="3" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="5" fillId="9" fontId="5" numFmtId="0">
+    <xf applyAlignment="1" borderId="0" fillId="5" fontId="4" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="8" fillId="9" fontId="8" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
     <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="165">
@@ -1128,16 +1223,16 @@
     <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="166">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="6" fontId="3" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="11" fontId="6" numFmtId="0">
+    <xf applyAlignment="1" borderId="0" fillId="4" fontId="4" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="7" fontId="6" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
     <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="167">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="12" fontId="4" numFmtId="0">
+    <xf applyAlignment="1" borderId="0" fillId="11" fontId="9" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
     <xf applyAlignment="1" borderId="0" fillId="0" fontId="1" numFmtId="0">
@@ -1149,112 +1244,112 @@
     <xf applyAlignment="1" borderId="0" fillId="0" fontId="2" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="7" fillId="14" fontId="0" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="16" fontId="4" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="8" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="9" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="10" numFmtId="0">
+    <xf applyAlignment="1" borderId="5" fillId="2" fontId="0" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="12" fontId="9" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
     <xf applyAlignment="1" borderId="0" fillId="0" fontId="11" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="6" fillId="0" fontId="7" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="6" fillId="0" fontId="12" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="17" fontId="4" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="8" numFmtId="0">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="3" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="12" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="14" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="10" fillId="0" fontId="13" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="10" fillId="0" fontId="15" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="10" fontId="9" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="11" fillId="0" fontId="11" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="14" fontId="9" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="6" fillId="6" fontId="5" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="8" fillId="6" fontId="17" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="7" fillId="8" fontId="7" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
     <xf applyAlignment="1" borderId="0" fillId="15" fontId="4" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="10" fillId="18" fontId="14" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="5" fillId="18" fontId="15" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="11" fillId="19" fontId="16" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="13" fontId="3" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="20" fontId="4" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="8" fillId="0" fontId="13" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="12" fillId="0" fontId="17" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="22" fontId="18" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="23" fontId="19" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="7" fontId="3" numFmtId="0">
+    <xf applyAlignment="1" borderId="0" fillId="17" fontId="9" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="12" fillId="0" fontId="18" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="9" fillId="0" fontId="10" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="18" fontId="19" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="13" fontId="16" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="19" fontId="4" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="21" fontId="9" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="23" fontId="4" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="3" fontId="4" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="25" fontId="4" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="26" fontId="4" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="27" fontId="9" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="16" fontId="9" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
     <xf applyAlignment="1" borderId="0" fillId="24" fontId="4" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="25" fontId="3" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="26" fontId="3" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="21" fontId="3" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="10" fontId="3" numFmtId="0">
+    <xf applyAlignment="1" borderId="0" fillId="22" fontId="4" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="20" fontId="9" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
     <xf applyAlignment="1" borderId="0" fillId="28" fontId="4" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="29" fontId="4" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="30" fontId="3" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="31" fontId="3" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="27" fontId="4" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="5" fontId="3" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="32" fontId="4" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="3" fontId="4" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="2" fontId="3" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="4" fontId="4" numFmtId="0">
+    <xf applyAlignment="1" borderId="0" fillId="29" fontId="9" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="30" fontId="9" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="31" fontId="4" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="32" fontId="9" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1262,20 +1357,20 @@
     <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf applyAlignment="1" borderId="1" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="10">
       <alignment vertical="center"/>
     </xf>
     <xf applyAlignment="1" borderId="1" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf applyAlignment="1" borderId="2" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="10">
+      <alignment vertical="center"/>
+    </xf>
     <xf applyAlignment="1" borderId="1" fillId="0" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="10">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" borderId="2" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
@@ -1641,13 +1736,13 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="0" outlineLevelRow="4"/>
   <cols>
-    <col customWidth="1" max="1" min="1" style="1" width="7.875"/>
-    <col customWidth="1" max="2" min="2" style="1" width="15.5"/>
-    <col customWidth="1" max="3" min="3" style="1" width="12.625"/>
-    <col customWidth="1" max="4" min="4" style="1" width="19.875"/>
-    <col customWidth="1" max="5" min="5" style="1" width="55.25"/>
-    <col customWidth="1" max="6" min="6" style="1" width="9.125"/>
-    <col customWidth="1" max="7" min="7" style="1" width="59.625"/>
+    <col customWidth="1" max="1" min="1" style="4" width="7.875"/>
+    <col customWidth="1" max="2" min="2" style="4" width="15.5"/>
+    <col customWidth="1" max="3" min="3" style="4" width="12.625"/>
+    <col customWidth="1" max="4" min="4" style="4" width="19.875"/>
+    <col customWidth="1" max="5" min="5" style="4" width="55.25"/>
+    <col customWidth="1" max="6" min="6" style="4" width="9.125"/>
+    <col customWidth="1" max="7" min="7" style="4" width="59.625"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
@@ -1677,19 +1772,19 @@
       </c>
     </row>
     <row customFormat="1" customHeight="1" ht="57" r="2" s="7" spans="1:8">
-      <c r="A2" s="4" t="n">
+      <c r="A2" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D2" s="5" t="s">
+      <c r="C2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="E2" s="6" t="s">
+      <c r="E2" s="3" t="s">
         <v>11</v>
       </c>
       <c r="F2" t="n">
@@ -1703,19 +1798,19 @@
       </c>
     </row>
     <row customFormat="1" customHeight="1" ht="57" r="3" s="7" spans="1:8">
-      <c r="A3" s="4" t="n">
+      <c r="A3" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C3" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D3" s="5" t="s">
+      <c r="C3" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="E3" s="6" t="s">
+      <c r="E3" s="3" t="s">
         <v>15</v>
       </c>
       <c r="F3" t="n">
@@ -1729,19 +1824,19 @@
       </c>
     </row>
     <row customFormat="1" customHeight="1" ht="57" r="4" s="7" spans="1:8">
-      <c r="A4" s="4" t="n">
+      <c r="A4" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C4" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D4" s="5" t="s">
+      <c r="C4" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="E4" s="6" t="s">
+      <c r="E4" s="3" t="s">
         <v>17</v>
       </c>
       <c r="F4" t="n">
@@ -1755,19 +1850,19 @@
       </c>
     </row>
     <row customFormat="1" customHeight="1" ht="57" r="5" s="7" spans="1:8">
-      <c r="A5" s="4" t="n">
+      <c r="A5" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="B5" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="C5" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D5" s="5" t="s">
+      <c r="C5" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D5" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="E5" s="6" t="s">
+      <c r="E5" s="3" t="s">
         <v>20</v>
       </c>
       <c r="F5" t="n">
@@ -1806,193 +1901,193 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="0" outlineLevelRow="6"/>
   <cols>
-    <col customWidth="1" max="2" min="2" style="1" width="17.875"/>
-    <col customWidth="1" max="3" min="3" style="1" width="11.625"/>
-    <col customWidth="1" max="4" min="4" style="1" width="15.25"/>
-    <col customWidth="1" max="5" min="5" style="1" width="47.25"/>
-    <col customWidth="1" max="6" min="6" style="1" width="27.875"/>
-    <col customWidth="1" max="7" min="7" style="1" width="55.625"/>
+    <col customWidth="1" max="2" min="2" style="4" width="17.875"/>
+    <col customWidth="1" max="3" min="3" style="4" width="11.625"/>
+    <col customWidth="1" max="4" min="4" style="4" width="15.25"/>
+    <col customWidth="1" max="5" min="5" style="4" width="47.25"/>
+    <col customWidth="1" max="6" min="6" style="4" width="27.875"/>
+    <col customWidth="1" max="7" min="7" style="4" width="55.625"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row customHeight="1" ht="24" r="2" s="1" spans="1:8">
-      <c r="A2" s="2" t="n">
+    <row customHeight="1" ht="24" r="2" s="4" spans="1:8">
+      <c r="A2" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="C2" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D2" s="3" t="s">
+      <c r="C2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="E2" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="F2" s="2" t="n">
+      <c r="F2" s="1" t="n">
         <v>10001</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="G2" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="H2" s="2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="24" r="3" s="1" spans="1:8">
-      <c r="A3" s="2" t="n">
+      <c r="H2" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="24" r="3" s="4" spans="1:8">
+      <c r="A3" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="C3" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D3" s="3" t="s">
+      <c r="C3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="E3" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="F3" s="2" t="n">
+      <c r="F3" s="1" t="n">
         <v>20103</v>
       </c>
-      <c r="G3" s="2" t="s">
+      <c r="G3" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="H3" s="2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="24" r="4" s="1" spans="1:8">
-      <c r="A4" s="2" t="n">
+      <c r="H3" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="24" r="4" s="4" spans="1:8">
+      <c r="A4" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="C4" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D4" s="3" t="s">
+      <c r="C4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="E4" s="2" t="s">
+      <c r="E4" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="F4" s="2" t="n">
+      <c r="F4" s="1" t="n">
         <v>20103</v>
       </c>
-      <c r="G4" s="2" t="s">
+      <c r="G4" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="H4" s="2" t="s">
+      <c r="H4" s="1" t="s">
         <v>13</v>
       </c>
     </row>
     <row customFormat="1" customHeight="1" ht="24" r="5" s="7" spans="1:8">
-      <c r="A5" s="2" t="n">
+      <c r="A5" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="B5" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="C5" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D5" s="3" t="s">
+      <c r="C5" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D5" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="E5" s="4" t="s">
+      <c r="E5" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="F5" s="4" t="n">
+      <c r="F5" s="2" t="n">
         <v>20111</v>
       </c>
-      <c r="G5" s="4" t="s">
+      <c r="G5" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="H5" s="4" t="s">
+      <c r="H5" s="2" t="s">
         <v>13</v>
       </c>
     </row>
     <row customFormat="1" customHeight="1" ht="24" r="6" s="7" spans="1:8">
-      <c r="A6" s="2" t="n">
+      <c r="A6" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="B6" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="C6" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D6" s="3" t="s">
+      <c r="C6" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D6" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="E6" s="4" t="s">
+      <c r="E6" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="F6" s="4" t="n">
+      <c r="F6" s="2" t="n">
         <v>20111</v>
       </c>
-      <c r="G6" s="4" t="s">
+      <c r="G6" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="H6" s="4" t="s">
+      <c r="H6" s="2" t="s">
         <v>13</v>
       </c>
     </row>
     <row customFormat="1" customHeight="1" ht="24" r="7" s="7" spans="1:8">
-      <c r="A7" s="2" t="n">
+      <c r="A7" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="B7" s="4" t="s">
+      <c r="B7" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="C7" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D7" s="3" t="s">
+      <c r="C7" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D7" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="E7" s="4" t="s">
+      <c r="E7" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F7" s="4" t="n">
+      <c r="F7" s="2" t="n">
         <v>20111</v>
       </c>
-      <c r="G7" s="4" t="s">
+      <c r="G7" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="H7" s="4" t="s">
+      <c r="H7" s="2" t="s">
         <v>13</v>
       </c>
     </row>
@@ -2024,297 +2119,297 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="0"/>
   <cols>
-    <col customWidth="1" max="2" min="2" style="1" width="14.5"/>
-    <col customWidth="1" max="3" min="3" style="1" width="11.625"/>
-    <col customWidth="1" max="4" min="4" style="1" width="17.25"/>
-    <col customWidth="1" max="5" min="5" style="1" width="47.375"/>
-    <col customWidth="1" max="6" min="6" style="1" width="12.25"/>
-    <col customWidth="1" max="7" min="7" style="1" width="44.25"/>
+    <col customWidth="1" max="2" min="2" style="4" width="14.5"/>
+    <col customWidth="1" max="3" min="3" style="4" width="11.625"/>
+    <col customWidth="1" max="4" min="4" style="4" width="17.25"/>
+    <col customWidth="1" max="5" min="5" style="4" width="47.375"/>
+    <col customWidth="1" max="6" min="6" style="4" width="12.25"/>
+    <col customWidth="1" max="7" min="7" style="4" width="44.25"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:8">
-      <c r="A2" s="2" t="n">
+      <c r="A2" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="C2" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D2" s="3" t="s">
+      <c r="C2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="E2" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="F2" s="2" t="n">
+      <c r="F2" s="1" t="n">
         <v>10001</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="G2" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="H2" s="2" t="s">
+      <c r="H2" s="1" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:8">
-      <c r="A3" s="2" t="n">
+      <c r="A3" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="C3" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D3" s="3" t="s">
+      <c r="C3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="E3" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="F3" s="2" t="n">
+      <c r="F3" s="1" t="n">
         <v>10001</v>
       </c>
-      <c r="G3" s="2" t="s">
+      <c r="G3" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="H3" s="2" t="s">
+      <c r="H3" s="1" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:8">
-      <c r="A4" s="2" t="n">
+      <c r="A4" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="C4" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D4" s="3" t="s">
+      <c r="C4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="E4" s="2" t="s">
+      <c r="E4" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="F4" s="2" t="n">
+      <c r="F4" s="1" t="n">
         <v>20103</v>
       </c>
-      <c r="G4" s="2" t="s">
+      <c r="G4" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="H4" s="2" t="s">
+      <c r="H4" s="1" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:8">
-      <c r="A5" s="2" t="n">
+      <c r="A5" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B5" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="C5" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D5" s="3" t="s">
+      <c r="C5" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D5" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="E5" s="2" t="s">
+      <c r="E5" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="F5" s="2" t="n">
+      <c r="F5" s="1" t="n">
         <v>20115</v>
       </c>
-      <c r="G5" s="2" t="s">
+      <c r="G5" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="H5" s="2" t="s">
+      <c r="H5" s="1" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="6" spans="1:8">
-      <c r="A6" s="2" t="n">
+      <c r="A6" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B6" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="C6" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D6" s="3" t="s">
+      <c r="C6" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D6" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="E6" s="2" t="s">
+      <c r="E6" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="F6" s="2" t="n">
+      <c r="F6" s="1" t="n">
         <v>20109</v>
       </c>
-      <c r="G6" s="2" t="s">
+      <c r="G6" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="H6" s="2" t="s">
+      <c r="H6" s="1" t="s">
         <v>53</v>
       </c>
     </row>
     <row customFormat="1" customHeight="1" ht="81" r="7" s="7" spans="1:8">
-      <c r="A7" s="2" t="n">
+      <c r="A7" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="B7" s="4" t="s">
+      <c r="B7" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="C7" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D7" s="3" t="s">
+      <c r="C7" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D7" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="E7" s="4" t="s">
+      <c r="E7" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="F7" s="4" t="n">
+      <c r="F7" s="2" t="n">
         <v>20117</v>
       </c>
-      <c r="G7" s="4" t="s">
+      <c r="G7" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="H7" s="4" t="s">
+      <c r="H7" s="2" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="8" spans="1:8">
-      <c r="A8" s="2" t="n">
+      <c r="A8" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="B8" s="4" t="s">
+      <c r="B8" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="C8" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D8" s="3" t="s">
+      <c r="C8" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D8" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="E8" s="4" t="s">
+      <c r="E8" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="F8" s="2" t="n">
+      <c r="F8" s="1" t="n">
         <v>20117</v>
       </c>
-      <c r="G8" s="2" t="s">
+      <c r="G8" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="H8" s="2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="27" r="9" s="1" spans="1:8">
-      <c r="A9" s="2" t="n">
+      <c r="H8" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="27" r="9" s="4" spans="1:8">
+      <c r="A9" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="B9" s="4" t="s">
+      <c r="B9" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="C9" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D9" s="3" t="s">
+      <c r="C9" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D9" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="E9" s="4" t="s">
+      <c r="E9" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="F9" s="2" t="n">
+      <c r="F9" s="1" t="n">
         <v>20118</v>
       </c>
-      <c r="G9" s="2" t="s">
+      <c r="G9" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="H9" s="2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="27" r="10" s="1" spans="1:8">
-      <c r="A10" s="2" t="n">
-        <v>9</v>
-      </c>
-      <c r="B10" s="4" t="s">
+      <c r="H9" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="27" r="10" s="4" spans="1:8">
+      <c r="A10" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B10" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="C10" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D10" s="3" t="s">
+      <c r="C10" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D10" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="E10" s="4" t="s">
+      <c r="E10" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="F10" s="2" t="n">
+      <c r="F10" s="1" t="n">
         <v>10001</v>
       </c>
-      <c r="G10" s="2" t="s">
+      <c r="G10" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="H10" s="2" t="s">
+      <c r="H10" s="1" t="s">
         <v>13</v>
       </c>
     </row>
     <row customFormat="1" customHeight="1" ht="27" r="11" s="7" spans="1:8">
-      <c r="A11" s="2" t="n">
+      <c r="A11" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="B11" s="4" t="s">
+      <c r="B11" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="C11" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D11" s="3" t="s">
+      <c r="C11" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D11" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="E11" s="4" t="s">
+      <c r="E11" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="F11" s="4" t="n">
+      <c r="F11" s="2" t="n">
         <v>20116</v>
       </c>
-      <c r="G11" s="4" t="s">
+      <c r="G11" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="H11" s="4" t="s">
+      <c r="H11" s="2" t="s">
         <v>13</v>
       </c>
     </row>
@@ -2345,90 +2440,90 @@
   <dimension ref="A1:H14"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="0"/>
   <cols>
-    <col customWidth="1" max="2" min="2" style="1" width="13.5"/>
-    <col customWidth="1" max="4" min="4" style="1" width="19.125"/>
-    <col customWidth="1" max="5" min="5" style="1" width="79.625"/>
-    <col customWidth="1" max="6" min="6" style="1" width="10.375"/>
-    <col customWidth="1" max="7" min="7" style="1" width="101.125"/>
+    <col customWidth="1" max="2" min="2" style="4" width="13.5"/>
+    <col customWidth="1" max="4" min="4" style="4" width="19.125"/>
+    <col customWidth="1" max="5" min="5" style="4" width="79.625"/>
+    <col customWidth="1" max="6" min="6" style="4" width="10.375"/>
+    <col customWidth="1" max="7" min="7" style="4" width="101.125"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:8">
-      <c r="A2" s="2" t="n">
+      <c r="A2" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="C2" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D2" s="3" t="s">
+      <c r="C2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="E2" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="F2" s="2" t="n">
+      <c r="F2" s="1" t="n">
         <v>10001</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="G2" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="H2" s="2" t="s">
+      <c r="H2" s="1" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:8">
-      <c r="A3" s="2" t="n">
+      <c r="A3" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="C3" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D3" s="3" t="s">
+      <c r="C3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="E3" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="F3" s="2" t="n">
+      <c r="F3" s="1" t="n">
         <v>10001</v>
       </c>
-      <c r="G3" s="2" t="s">
+      <c r="G3" s="1" t="s">
         <v>71</v>
       </c>
       <c r="H3" t="s">
@@ -2436,19 +2531,19 @@
       </c>
     </row>
     <row customFormat="1" r="4" s="7" spans="1:8">
-      <c r="A4" s="4" t="n">
+      <c r="A4" s="2" t="n">
         <v>3</v>
       </c>
       <c r="B4" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="C4" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D4" s="5" t="s">
+      <c r="C4" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" s="6" t="s">
         <v>73</v>
       </c>
-      <c r="E4" s="6" t="s">
+      <c r="E4" s="3" t="s">
         <v>74</v>
       </c>
       <c r="F4" s="7" t="n">
@@ -2462,19 +2557,19 @@
       </c>
     </row>
     <row customFormat="1" customHeight="1" ht="27" r="5" s="7" spans="1:8">
-      <c r="A5" s="2" t="n">
+      <c r="A5" s="1" t="n">
         <v>4</v>
       </c>
       <c r="B5" s="8" t="s">
         <v>76</v>
       </c>
-      <c r="C5" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D5" s="5" t="s">
+      <c r="C5" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D5" s="6" t="s">
         <v>73</v>
       </c>
-      <c r="E5" s="6" t="s">
+      <c r="E5" s="3" t="s">
         <v>77</v>
       </c>
       <c r="F5" s="7" t="n">
@@ -2488,19 +2583,19 @@
       </c>
     </row>
     <row customFormat="1" customHeight="1" ht="27" r="6" s="7" spans="1:8">
-      <c r="A6" s="2" t="n">
+      <c r="A6" s="1" t="n">
         <v>5</v>
       </c>
       <c r="B6" s="8" t="s">
         <v>79</v>
       </c>
-      <c r="C6" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D6" s="5" t="s">
+      <c r="C6" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D6" s="6" t="s">
         <v>73</v>
       </c>
-      <c r="E6" s="6" t="s">
+      <c r="E6" s="3" t="s">
         <v>80</v>
       </c>
       <c r="F6" s="7" t="n">
@@ -2514,19 +2609,19 @@
       </c>
     </row>
     <row customFormat="1" customHeight="1" ht="27" r="7" s="7" spans="1:8">
-      <c r="A7" s="4" t="n">
+      <c r="A7" s="2" t="n">
         <v>6</v>
       </c>
       <c r="B7" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="C7" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D7" s="5" t="s">
+      <c r="C7" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D7" s="6" t="s">
         <v>73</v>
       </c>
-      <c r="E7" s="6" t="s">
+      <c r="E7" s="3" t="s">
         <v>82</v>
       </c>
       <c r="F7" s="7" t="n">
@@ -2540,19 +2635,19 @@
       </c>
     </row>
     <row customFormat="1" customHeight="1" ht="27" r="8" s="7" spans="1:8">
-      <c r="A8" s="2" t="n">
+      <c r="A8" s="1" t="n">
         <v>7</v>
       </c>
       <c r="B8" s="8" t="s">
         <v>84</v>
       </c>
-      <c r="C8" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D8" s="5" t="s">
+      <c r="C8" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D8" s="6" t="s">
         <v>73</v>
       </c>
-      <c r="E8" s="6" t="s">
+      <c r="E8" s="3" t="s">
         <v>85</v>
       </c>
       <c r="F8" s="7" t="n">
@@ -2566,19 +2661,19 @@
       </c>
     </row>
     <row customFormat="1" customHeight="1" ht="27" r="9" s="7" spans="1:8">
-      <c r="A9" s="2" t="n">
+      <c r="A9" s="1" t="n">
         <v>8</v>
       </c>
       <c r="B9" s="8" t="s">
         <v>87</v>
       </c>
-      <c r="C9" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D9" s="5" t="s">
+      <c r="C9" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D9" s="6" t="s">
         <v>73</v>
       </c>
-      <c r="E9" s="6" t="s">
+      <c r="E9" s="3" t="s">
         <v>55</v>
       </c>
       <c r="F9" s="7" t="n">
@@ -2592,19 +2687,19 @@
       </c>
     </row>
     <row customFormat="1" customHeight="1" ht="27" r="10" s="7" spans="1:8">
-      <c r="A10" s="4" t="n">
-        <v>9</v>
-      </c>
-      <c r="B10" s="4" t="s">
+      <c r="A10" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B10" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="C10" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D10" s="5" t="s">
+      <c r="C10" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D10" s="6" t="s">
         <v>73</v>
       </c>
-      <c r="E10" s="6" t="s">
+      <c r="E10" s="3" t="s">
         <v>57</v>
       </c>
       <c r="F10" s="7" t="n">
@@ -2618,19 +2713,19 @@
       </c>
     </row>
     <row customFormat="1" customHeight="1" ht="40.5" r="11" s="7" spans="1:8">
-      <c r="A11" s="2" t="n">
+      <c r="A11" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="B11" s="4" t="s">
+      <c r="B11" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="C11" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D11" s="5" t="s">
+      <c r="C11" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D11" s="6" t="s">
         <v>73</v>
       </c>
-      <c r="E11" s="6" t="s">
+      <c r="E11" s="3" t="s">
         <v>60</v>
       </c>
       <c r="F11" s="7" t="n">
@@ -2644,19 +2739,19 @@
       </c>
     </row>
     <row customFormat="1" customHeight="1" ht="40.5" r="12" s="7" spans="1:8">
-      <c r="A12" s="2" t="n">
+      <c r="A12" s="1" t="n">
         <v>11</v>
       </c>
-      <c r="B12" s="4" t="s">
+      <c r="B12" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="C12" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D12" s="5" t="s">
+      <c r="C12" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D12" s="6" t="s">
         <v>73</v>
       </c>
-      <c r="E12" s="6" t="s">
+      <c r="E12" s="3" t="s">
         <v>63</v>
       </c>
       <c r="F12" s="7" t="n">
@@ -2670,19 +2765,19 @@
       </c>
     </row>
     <row customFormat="1" customHeight="1" ht="40.5" r="13" s="7" spans="1:8">
-      <c r="A13" s="4" t="n">
+      <c r="A13" s="2" t="n">
         <v>12</v>
       </c>
-      <c r="B13" s="4" t="s">
+      <c r="B13" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="C13" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D13" s="5" t="s">
+      <c r="C13" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D13" s="6" t="s">
         <v>73</v>
       </c>
-      <c r="E13" s="6" t="s">
+      <c r="E13" s="3" t="s">
         <v>66</v>
       </c>
       <c r="F13" s="7" t="n">
@@ -2696,19 +2791,19 @@
       </c>
     </row>
     <row customFormat="1" customHeight="1" ht="54" r="14" s="7" spans="1:8">
-      <c r="A14" s="2" t="n">
+      <c r="A14" s="1" t="n">
         <v>13</v>
       </c>
       <c r="B14" s="9" t="s">
         <v>96</v>
       </c>
-      <c r="C14" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D14" s="5" t="s">
+      <c r="C14" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D14" s="6" t="s">
         <v>73</v>
       </c>
-      <c r="E14" s="6" t="s">
+      <c r="E14" s="3" t="s">
         <v>97</v>
       </c>
       <c r="F14" s="7" t="n">
@@ -2749,533 +2844,533 @@
   </sheetPr>
   <dimension ref="A1:H20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="0"/>
   <cols>
-    <col customWidth="1" max="2" min="2" style="1" width="20.875"/>
-    <col customWidth="1" max="4" min="4" style="1" width="22.5"/>
-    <col customWidth="1" max="5" min="5" style="1" width="68.75"/>
-    <col customWidth="1" max="7" min="7" style="1" width="64.25"/>
+    <col customWidth="1" max="2" min="2" style="4" width="20.875"/>
+    <col customWidth="1" max="4" min="4" style="4" width="22.5"/>
+    <col customWidth="1" max="5" min="5" style="4" width="68.75"/>
+    <col customWidth="1" max="7" min="7" style="4" width="64.25"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:8">
-      <c r="A2" s="2" t="n">
+      <c r="A2" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="C2" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D2" s="3" t="s">
+      <c r="C2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="E2" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="F2" s="2" t="n">
+      <c r="F2" s="1" t="n">
         <v>10001</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="G2" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="H2" s="2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="40.5" r="3" s="1" spans="1:8">
+      <c r="H2" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="40.5" r="3" s="4" spans="1:8">
       <c r="A3" t="n">
         <v>2</v>
       </c>
       <c r="B3" t="s">
         <v>100</v>
       </c>
-      <c r="C3" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D3" s="5" t="s">
+      <c r="C3" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" s="6" t="s">
         <v>101</v>
       </c>
-      <c r="E3" s="6" t="s">
+      <c r="E3" s="3" t="s">
         <v>102</v>
       </c>
       <c r="F3" t="n">
         <v>10001</v>
       </c>
       <c r="G3" t="s">
-        <v>183</v>
+        <v>103</v>
       </c>
       <c r="H3" t="s">
         <v>13</v>
       </c>
     </row>
-    <row customHeight="1" ht="40.5" r="4" s="1" spans="1:8">
-      <c r="A4" s="2" t="n">
+    <row customHeight="1" ht="40.5" r="4" s="4" spans="1:8">
+      <c r="A4" s="1" t="n">
         <v>3</v>
       </c>
       <c r="B4" t="s">
         <v>104</v>
       </c>
-      <c r="C4" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D4" s="5" t="s">
+      <c r="C4" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" s="6" t="s">
         <v>101</v>
       </c>
-      <c r="E4" s="6" t="s">
+      <c r="E4" s="3" t="s">
         <v>105</v>
       </c>
       <c r="F4" t="n">
         <v>20103</v>
       </c>
       <c r="G4" t="s">
-        <v>184</v>
+        <v>106</v>
       </c>
       <c r="H4" t="s">
         <v>13</v>
       </c>
     </row>
-    <row customHeight="1" ht="40.5" r="5" s="1" spans="1:8">
+    <row customHeight="1" ht="40.5" r="5" s="4" spans="1:8">
       <c r="A5" t="n">
         <v>4</v>
       </c>
       <c r="B5" t="s">
         <v>107</v>
       </c>
-      <c r="C5" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D5" s="5" t="s">
+      <c r="C5" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D5" s="6" t="s">
         <v>101</v>
       </c>
-      <c r="E5" s="6" t="s">
+      <c r="E5" s="3" t="s">
         <v>108</v>
       </c>
       <c r="F5" t="n">
         <v>20103</v>
       </c>
       <c r="G5" t="s">
-        <v>184</v>
+        <v>106</v>
       </c>
       <c r="H5" t="s">
         <v>13</v>
       </c>
     </row>
-    <row customHeight="1" ht="40.5" r="6" s="1" spans="1:8">
-      <c r="A6" s="2" t="n">
+    <row customHeight="1" ht="40.5" r="6" s="4" spans="1:8">
+      <c r="A6" s="1" t="n">
         <v>5</v>
       </c>
       <c r="B6" t="s">
         <v>109</v>
       </c>
-      <c r="C6" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D6" s="5" t="s">
+      <c r="C6" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D6" s="6" t="s">
         <v>101</v>
       </c>
-      <c r="E6" s="6" t="s">
+      <c r="E6" s="3" t="s">
         <v>110</v>
       </c>
       <c r="F6" t="n">
         <v>20103</v>
       </c>
       <c r="G6" t="s">
-        <v>184</v>
+        <v>106</v>
       </c>
       <c r="H6" t="s">
         <v>13</v>
       </c>
     </row>
-    <row customHeight="1" ht="40.5" r="7" s="1" spans="1:8">
+    <row customHeight="1" ht="40.5" r="7" s="4" spans="1:8">
       <c r="A7" t="n">
         <v>6</v>
       </c>
       <c r="B7" t="s">
         <v>111</v>
       </c>
-      <c r="C7" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D7" s="5" t="s">
+      <c r="C7" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D7" s="6" t="s">
         <v>101</v>
       </c>
-      <c r="E7" s="6" t="s">
+      <c r="E7" s="3" t="s">
         <v>112</v>
       </c>
       <c r="F7" t="n">
         <v>20103</v>
       </c>
       <c r="G7" t="s">
-        <v>184</v>
+        <v>106</v>
       </c>
       <c r="H7" t="s">
         <v>13</v>
       </c>
     </row>
-    <row customHeight="1" ht="40.5" r="8" s="1" spans="1:8">
-      <c r="A8" s="2" t="n">
+    <row customHeight="1" ht="40.5" r="8" s="4" spans="1:8">
+      <c r="A8" s="1" t="n">
         <v>7</v>
       </c>
       <c r="B8" t="s">
         <v>113</v>
       </c>
-      <c r="C8" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D8" s="5" t="s">
+      <c r="C8" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D8" s="6" t="s">
         <v>101</v>
       </c>
-      <c r="E8" s="6" t="s">
+      <c r="E8" s="3" t="s">
         <v>114</v>
       </c>
       <c r="F8" t="n">
         <v>20103</v>
       </c>
       <c r="G8" t="s">
-        <v>184</v>
+        <v>106</v>
       </c>
       <c r="H8" t="s">
         <v>13</v>
       </c>
     </row>
-    <row customHeight="1" ht="40.5" r="9" s="1" spans="1:8">
+    <row customHeight="1" ht="40.5" r="9" s="4" spans="1:8">
       <c r="A9" t="n">
         <v>8</v>
       </c>
       <c r="B9" t="s">
         <v>115</v>
       </c>
-      <c r="C9" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D9" s="5" t="s">
+      <c r="C9" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D9" s="6" t="s">
         <v>101</v>
       </c>
-      <c r="E9" s="6" t="s">
+      <c r="E9" s="3" t="s">
         <v>116</v>
       </c>
       <c r="F9" t="n">
         <v>20103</v>
       </c>
       <c r="G9" t="s">
-        <v>184</v>
+        <v>106</v>
       </c>
       <c r="H9" t="s">
         <v>13</v>
       </c>
     </row>
-    <row customHeight="1" ht="40.5" r="10" s="1" spans="1:8">
-      <c r="A10" s="2" t="n">
+    <row customHeight="1" ht="40.5" r="10" s="4" spans="1:8">
+      <c r="A10" s="1" t="n">
         <v>9</v>
       </c>
       <c r="B10" t="s">
         <v>117</v>
       </c>
-      <c r="C10" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D10" s="5" t="s">
+      <c r="C10" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D10" s="6" t="s">
         <v>101</v>
       </c>
-      <c r="E10" s="6" t="s">
+      <c r="E10" s="3" t="s">
         <v>118</v>
       </c>
       <c r="F10" t="n">
         <v>20103</v>
       </c>
       <c r="G10" t="s">
-        <v>184</v>
+        <v>106</v>
       </c>
       <c r="H10" t="s">
         <v>13</v>
       </c>
     </row>
-    <row customHeight="1" ht="40.5" r="11" s="1" spans="1:8">
+    <row customHeight="1" ht="40.5" r="11" s="4" spans="1:8">
       <c r="A11" t="n">
         <v>10</v>
       </c>
       <c r="B11" t="s">
         <v>119</v>
       </c>
-      <c r="C11" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D11" s="5" t="s">
+      <c r="C11" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D11" s="6" t="s">
         <v>101</v>
       </c>
-      <c r="E11" s="6" t="s">
+      <c r="E11" s="3" t="s">
         <v>120</v>
       </c>
       <c r="F11" t="n">
         <v>20103</v>
       </c>
       <c r="G11" t="s">
-        <v>184</v>
+        <v>106</v>
       </c>
       <c r="H11" t="s">
         <v>13</v>
       </c>
     </row>
-    <row customHeight="1" ht="40.5" r="12" s="1" spans="1:8">
-      <c r="A12" s="2" t="n">
+    <row customHeight="1" ht="40.5" r="12" s="4" spans="1:8">
+      <c r="A12" s="1" t="n">
         <v>11</v>
       </c>
       <c r="B12" t="s">
         <v>121</v>
       </c>
-      <c r="C12" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D12" s="5" t="s">
+      <c r="C12" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D12" s="6" t="s">
         <v>101</v>
       </c>
-      <c r="E12" s="6" t="s">
+      <c r="E12" s="3" t="s">
         <v>122</v>
       </c>
       <c r="F12" t="n">
         <v>20104</v>
       </c>
       <c r="G12" t="s">
-        <v>185</v>
+        <v>123</v>
       </c>
       <c r="H12" t="s">
         <v>13</v>
       </c>
     </row>
-    <row customHeight="1" ht="40.5" r="13" s="1" spans="1:8">
+    <row customHeight="1" ht="40.5" r="13" s="4" spans="1:8">
       <c r="A13" t="n">
         <v>12</v>
       </c>
       <c r="B13" t="s">
         <v>124</v>
       </c>
-      <c r="C13" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D13" s="5" t="s">
+      <c r="C13" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D13" s="6" t="s">
         <v>101</v>
       </c>
-      <c r="E13" s="6" t="s">
+      <c r="E13" s="3" t="s">
         <v>125</v>
       </c>
       <c r="F13" t="n">
         <v>20105</v>
       </c>
       <c r="G13" t="s">
-        <v>186</v>
+        <v>126</v>
       </c>
       <c r="H13" t="s">
         <v>53</v>
       </c>
     </row>
-    <row customHeight="1" ht="40.5" r="14" s="1" spans="1:8">
-      <c r="A14" s="2" t="n">
+    <row customHeight="1" ht="40.5" r="14" s="4" spans="1:8">
+      <c r="A14" s="1" t="n">
         <v>13</v>
       </c>
       <c r="B14" t="s">
         <v>127</v>
       </c>
-      <c r="C14" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D14" s="5" t="s">
+      <c r="C14" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D14" s="6" t="s">
         <v>101</v>
       </c>
-      <c r="E14" s="6" t="s">
+      <c r="E14" s="3" t="s">
         <v>128</v>
       </c>
       <c r="F14" t="n">
         <v>20106</v>
       </c>
       <c r="G14" t="s">
-        <v>183</v>
+        <v>103</v>
       </c>
       <c r="H14" t="s">
         <v>53</v>
       </c>
     </row>
-    <row customHeight="1" ht="40.5" r="15" s="1" spans="1:8">
+    <row customHeight="1" ht="40.5" r="15" s="4" spans="1:8">
       <c r="A15" t="n">
         <v>14</v>
       </c>
       <c r="B15" t="s">
         <v>129</v>
       </c>
-      <c r="C15" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D15" s="5" t="s">
+      <c r="C15" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D15" s="6" t="s">
         <v>101</v>
       </c>
-      <c r="E15" s="6" t="s">
+      <c r="E15" s="3" t="s">
         <v>130</v>
       </c>
       <c r="F15" t="n">
         <v>20106</v>
       </c>
       <c r="G15" t="s">
-        <v>187</v>
+        <v>131</v>
       </c>
       <c r="H15" t="s">
         <v>13</v>
       </c>
     </row>
-    <row customHeight="1" ht="40.5" r="16" s="1" spans="1:8">
-      <c r="A16" s="2" t="n">
+    <row customHeight="1" ht="40.5" r="16" s="4" spans="1:8">
+      <c r="A16" s="1" t="n">
         <v>15</v>
       </c>
       <c r="B16" t="s">
         <v>132</v>
       </c>
-      <c r="C16" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D16" s="5" t="s">
+      <c r="C16" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D16" s="6" t="s">
         <v>101</v>
       </c>
-      <c r="E16" s="6" t="s">
+      <c r="E16" s="3" t="s">
         <v>133</v>
       </c>
       <c r="F16" t="n">
         <v>20106</v>
       </c>
       <c r="G16" t="s">
-        <v>187</v>
+        <v>131</v>
       </c>
       <c r="H16" t="s">
         <v>13</v>
       </c>
     </row>
-    <row customHeight="1" ht="40.5" r="17" s="1" spans="1:8">
+    <row customHeight="1" ht="40.5" r="17" s="4" spans="1:8">
       <c r="A17" t="n">
         <v>16</v>
       </c>
       <c r="B17" t="s">
         <v>134</v>
       </c>
-      <c r="C17" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D17" s="5" t="s">
+      <c r="C17" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D17" s="6" t="s">
         <v>101</v>
       </c>
-      <c r="E17" s="6" t="s">
+      <c r="E17" s="3" t="s">
         <v>135</v>
       </c>
       <c r="F17" t="n">
         <v>20107</v>
       </c>
       <c r="G17" t="s">
-        <v>188</v>
+        <v>136</v>
       </c>
       <c r="H17" t="s">
         <v>13</v>
       </c>
     </row>
-    <row customHeight="1" ht="40.5" r="18" s="1" spans="1:8">
-      <c r="A18" s="2" t="n">
+    <row customHeight="1" ht="40.5" r="18" s="4" spans="1:8">
+      <c r="A18" s="1" t="n">
         <v>17</v>
       </c>
       <c r="B18" t="s">
         <v>137</v>
       </c>
-      <c r="C18" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D18" s="5" t="s">
+      <c r="C18" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D18" s="6" t="s">
         <v>101</v>
       </c>
-      <c r="E18" s="6" t="s">
+      <c r="E18" s="3" t="s">
         <v>138</v>
       </c>
       <c r="F18" t="n">
         <v>20107</v>
       </c>
       <c r="G18" t="s">
-        <v>188</v>
+        <v>136</v>
       </c>
       <c r="H18" t="s">
         <v>13</v>
       </c>
     </row>
-    <row customHeight="1" ht="40.5" r="19" s="1" spans="1:8">
+    <row customHeight="1" ht="40.5" r="19" s="4" spans="1:8">
       <c r="A19" t="n">
         <v>18</v>
       </c>
       <c r="B19" t="s">
         <v>139</v>
       </c>
-      <c r="C19" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D19" s="5" t="s">
+      <c r="C19" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D19" s="6" t="s">
         <v>101</v>
       </c>
-      <c r="E19" s="6" t="s">
+      <c r="E19" s="3" t="s">
         <v>140</v>
       </c>
       <c r="F19" t="n">
         <v>20108</v>
       </c>
       <c r="G19" t="s">
-        <v>189</v>
+        <v>141</v>
       </c>
       <c r="H19" t="s">
         <v>13</v>
       </c>
     </row>
-    <row customHeight="1" ht="40.5" r="20" s="1" spans="1:8">
-      <c r="A20" s="2" t="n">
+    <row customHeight="1" ht="40.5" r="20" s="4" spans="1:8">
+      <c r="A20" s="1" t="n">
         <v>19</v>
       </c>
       <c r="B20" t="s">
         <v>142</v>
       </c>
-      <c r="C20" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D20" s="5" t="s">
+      <c r="C20" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D20" s="6" t="s">
         <v>101</v>
       </c>
-      <c r="E20" s="6" t="s">
+      <c r="E20" s="3" t="s">
         <v>143</v>
       </c>
       <c r="F20" t="n">
         <v>20109</v>
       </c>
       <c r="G20" t="s">
-        <v>186</v>
+        <v>126</v>
       </c>
       <c r="H20" t="s">
         <v>13</v>
@@ -3297,84 +3392,84 @@
   </sheetPr>
   <dimension ref="A1:H18"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0" zoomScale="85" zoomScaleNormal="85">
-      <selection activeCell="E27" sqref="E27"/>
+    <sheetView workbookViewId="0" zoomScale="85" zoomScaleNormal="85">
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="0"/>
   <cols>
-    <col customWidth="1" max="2" min="2" style="1" width="23.625"/>
-    <col customWidth="1" max="5" min="5" style="1" width="78.6166666666667"/>
-    <col customWidth="1" max="6" min="6" style="1" width="28.525"/>
-    <col customWidth="1" max="7" min="7" style="1" width="86.6166666666667"/>
+    <col customWidth="1" max="2" min="2" style="4" width="23.625"/>
+    <col customWidth="1" max="5" min="5" style="4" width="78.6166666666667"/>
+    <col customWidth="1" max="6" min="6" style="4" width="28.525"/>
+    <col customWidth="1" max="7" min="7" style="4" width="86.6166666666667"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row customHeight="1" ht="19" r="2" s="1" spans="1:8">
-      <c r="A2" s="2" t="n">
+    <row customHeight="1" ht="19" r="2" s="4" spans="1:8">
+      <c r="A2" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="C2" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D2" s="3" t="s">
+      <c r="C2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="E2" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="F2" s="2" t="n">
+      <c r="F2" s="1" t="n">
         <v>10001</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="G2" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="H2" s="2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="27" r="3" s="1" spans="1:8">
-      <c r="A3" s="2" t="n">
+      <c r="H2" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="27" r="3" s="4" spans="1:8">
+      <c r="A3" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="2" t="s">
         <v>146</v>
       </c>
-      <c r="C3" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D3" s="5" t="s">
+      <c r="C3" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" s="6" t="s">
         <v>147</v>
       </c>
-      <c r="E3" s="6" t="s">
+      <c r="E3" s="3" t="s">
         <v>148</v>
       </c>
       <c r="F3" t="n">
@@ -3387,20 +3482,20 @@
         <v>13</v>
       </c>
     </row>
-    <row customHeight="1" ht="27" r="4" s="1" spans="1:8">
-      <c r="A4" s="2" t="n">
+    <row customHeight="1" ht="27" r="4" s="4" spans="1:8">
+      <c r="A4" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="C4" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D4" s="5" t="s">
+      <c r="C4" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" s="6" t="s">
         <v>147</v>
       </c>
-      <c r="E4" s="6" t="s">
+      <c r="E4" s="3" t="s">
         <v>150</v>
       </c>
       <c r="F4" t="n">
@@ -3413,20 +3508,20 @@
         <v>13</v>
       </c>
     </row>
-    <row customHeight="1" ht="27" r="5" s="1" spans="1:8">
-      <c r="A5" s="2" t="n">
+    <row customHeight="1" ht="27" r="5" s="4" spans="1:8">
+      <c r="A5" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="B5" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="C5" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D5" s="5" t="s">
+      <c r="C5" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D5" s="6" t="s">
         <v>147</v>
       </c>
-      <c r="E5" s="6" t="s">
+      <c r="E5" s="3" t="s">
         <v>152</v>
       </c>
       <c r="F5" t="n">
@@ -3439,20 +3534,20 @@
         <v>13</v>
       </c>
     </row>
-    <row customHeight="1" ht="27" r="6" s="1" spans="1:8">
-      <c r="A6" s="2" t="n">
+    <row customHeight="1" ht="27" r="6" s="4" spans="1:8">
+      <c r="A6" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="B6" s="2" t="s">
         <v>153</v>
       </c>
-      <c r="C6" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D6" s="5" t="s">
+      <c r="C6" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D6" s="6" t="s">
         <v>147</v>
       </c>
-      <c r="E6" s="6" t="s">
+      <c r="E6" s="3" t="s">
         <v>154</v>
       </c>
       <c r="F6" t="n">
@@ -3465,20 +3560,20 @@
         <v>13</v>
       </c>
     </row>
-    <row customHeight="1" ht="27" r="7" s="1" spans="1:8">
-      <c r="A7" s="2" t="n">
+    <row customHeight="1" ht="27" r="7" s="4" spans="1:8">
+      <c r="A7" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="B7" s="4" t="s">
+      <c r="B7" s="2" t="s">
         <v>155</v>
       </c>
-      <c r="C7" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D7" s="5" t="s">
+      <c r="C7" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D7" s="6" t="s">
         <v>147</v>
       </c>
-      <c r="E7" s="6" t="s">
+      <c r="E7" s="3" t="s">
         <v>156</v>
       </c>
       <c r="F7" t="n">
@@ -3491,20 +3586,20 @@
         <v>13</v>
       </c>
     </row>
-    <row customHeight="1" ht="27" r="8" s="1" spans="1:8">
-      <c r="A8" s="2" t="n">
+    <row customHeight="1" ht="27" r="8" s="4" spans="1:8">
+      <c r="A8" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="B8" s="4" t="s">
+      <c r="B8" s="2" t="s">
         <v>157</v>
       </c>
-      <c r="C8" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D8" s="5" t="s">
+      <c r="C8" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D8" s="6" t="s">
         <v>147</v>
       </c>
-      <c r="E8" s="6" t="s">
+      <c r="E8" s="3" t="s">
         <v>158</v>
       </c>
       <c r="F8" t="n">
@@ -3517,20 +3612,20 @@
         <v>13</v>
       </c>
     </row>
-    <row customHeight="1" ht="40.5" r="9" s="1" spans="1:8">
-      <c r="A9" s="2" t="n">
+    <row customHeight="1" ht="40.5" r="9" s="4" spans="1:8">
+      <c r="A9" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="B9" s="4" t="s">
+      <c r="B9" s="2" t="s">
         <v>160</v>
       </c>
-      <c r="C9" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D9" s="5" t="s">
+      <c r="C9" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D9" s="6" t="s">
         <v>147</v>
       </c>
-      <c r="E9" s="6" t="s">
+      <c r="E9" s="3" t="s">
         <v>161</v>
       </c>
       <c r="F9" t="n">
@@ -3543,20 +3638,20 @@
         <v>13</v>
       </c>
     </row>
-    <row customHeight="1" ht="67.5" r="10" s="1" spans="1:8">
-      <c r="A10" s="2" t="n">
-        <v>9</v>
-      </c>
-      <c r="B10" s="4" t="s">
+    <row customHeight="1" ht="67.5" r="10" s="4" spans="1:8">
+      <c r="A10" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B10" s="2" t="s">
         <v>163</v>
       </c>
-      <c r="C10" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D10" s="5" t="s">
+      <c r="C10" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D10" s="6" t="s">
         <v>147</v>
       </c>
-      <c r="E10" s="6" t="s">
+      <c r="E10" s="3" t="s">
         <v>164</v>
       </c>
       <c r="F10" t="n">
@@ -3569,20 +3664,20 @@
         <v>13</v>
       </c>
     </row>
-    <row customHeight="1" ht="27" r="11" s="1" spans="1:8">
-      <c r="A11" s="2" t="n">
+    <row customHeight="1" ht="27" r="11" s="4" spans="1:8">
+      <c r="A11" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="B11" s="4" t="s">
+      <c r="B11" s="2" t="s">
         <v>165</v>
       </c>
-      <c r="C11" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D11" s="5" t="s">
+      <c r="C11" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D11" s="6" t="s">
         <v>147</v>
       </c>
-      <c r="E11" s="6" t="s">
+      <c r="E11" s="3" t="s">
         <v>166</v>
       </c>
       <c r="F11" t="n">
@@ -3595,20 +3690,20 @@
         <v>13</v>
       </c>
     </row>
-    <row customHeight="1" ht="27" r="12" s="1" spans="1:8">
-      <c r="A12" s="2" t="n">
+    <row customHeight="1" ht="27" r="12" s="4" spans="1:8">
+      <c r="A12" s="1" t="n">
         <v>11</v>
       </c>
-      <c r="B12" s="4" t="s">
+      <c r="B12" s="2" t="s">
         <v>168</v>
       </c>
-      <c r="C12" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D12" s="5" t="s">
+      <c r="C12" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D12" s="6" t="s">
         <v>147</v>
       </c>
-      <c r="E12" s="6" t="s">
+      <c r="E12" s="3" t="s">
         <v>169</v>
       </c>
       <c r="F12" t="n">
@@ -3621,20 +3716,20 @@
         <v>13</v>
       </c>
     </row>
-    <row customHeight="1" ht="27" r="13" s="1" spans="1:8">
-      <c r="A13" s="2" t="n">
+    <row customHeight="1" ht="27" r="13" s="4" spans="1:8">
+      <c r="A13" s="1" t="n">
         <v>12</v>
       </c>
-      <c r="B13" s="4" t="s">
+      <c r="B13" s="2" t="s">
         <v>171</v>
       </c>
-      <c r="C13" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D13" s="5" t="s">
+      <c r="C13" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D13" s="6" t="s">
         <v>147</v>
       </c>
-      <c r="E13" s="6" t="s">
+      <c r="E13" s="3" t="s">
         <v>172</v>
       </c>
       <c r="F13" t="n">
@@ -3647,20 +3742,20 @@
         <v>13</v>
       </c>
     </row>
-    <row customHeight="1" ht="27" r="14" s="1" spans="1:8">
-      <c r="A14" s="2" t="n">
-        <v>13</v>
-      </c>
-      <c r="B14" s="4" t="s">
+    <row customHeight="1" ht="27" r="14" s="4" spans="1:8">
+      <c r="A14" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B14" s="2" t="s">
         <v>173</v>
       </c>
-      <c r="C14" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D14" s="5" t="s">
+      <c r="C14" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D14" s="6" t="s">
         <v>147</v>
       </c>
-      <c r="E14" s="6" t="s">
+      <c r="E14" s="3" t="s">
         <v>174</v>
       </c>
       <c r="F14" t="n">
@@ -3673,20 +3768,20 @@
         <v>13</v>
       </c>
     </row>
-    <row customHeight="1" ht="27" r="15" s="1" spans="1:8">
-      <c r="A15" s="2" t="n">
+    <row customHeight="1" ht="27" r="15" s="4" spans="1:8">
+      <c r="A15" s="1" t="n">
         <v>14</v>
       </c>
-      <c r="B15" s="4" t="s">
+      <c r="B15" s="2" t="s">
         <v>175</v>
       </c>
-      <c r="C15" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D15" s="5" t="s">
+      <c r="C15" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D15" s="6" t="s">
         <v>147</v>
       </c>
-      <c r="E15" s="6" t="s">
+      <c r="E15" s="3" t="s">
         <v>176</v>
       </c>
       <c r="F15" t="n">
@@ -3699,20 +3794,20 @@
         <v>53</v>
       </c>
     </row>
-    <row customHeight="1" ht="40.5" r="16" s="1" spans="1:8">
-      <c r="A16" s="2" t="n">
+    <row customHeight="1" ht="40.5" r="16" s="4" spans="1:8">
+      <c r="A16" s="1" t="n">
         <v>15</v>
       </c>
-      <c r="B16" s="4" t="s">
+      <c r="B16" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="C16" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D16" s="5" t="s">
+      <c r="C16" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D16" s="6" t="s">
         <v>147</v>
       </c>
-      <c r="E16" s="6" t="s">
+      <c r="E16" s="3" t="s">
         <v>177</v>
       </c>
       <c r="F16" t="n">
@@ -3725,20 +3820,20 @@
         <v>13</v>
       </c>
     </row>
-    <row customHeight="1" ht="27" r="17" s="1" spans="1:8">
-      <c r="A17" s="2" t="n">
+    <row customHeight="1" ht="27" r="17" s="4" spans="1:8">
+      <c r="A17" s="1" t="n">
         <v>16</v>
       </c>
-      <c r="B17" s="4" t="s">
+      <c r="B17" s="2" t="s">
         <v>179</v>
       </c>
-      <c r="C17" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D17" s="5" t="s">
+      <c r="C17" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D17" s="6" t="s">
         <v>147</v>
       </c>
-      <c r="E17" s="6" t="s">
+      <c r="E17" s="3" t="s">
         <v>180</v>
       </c>
       <c r="F17" t="n">
@@ -3751,20 +3846,20 @@
         <v>53</v>
       </c>
     </row>
-    <row customHeight="1" ht="27" r="18" s="1" spans="1:8">
-      <c r="A18" s="2" t="n">
+    <row customHeight="1" ht="27" r="18" s="4" spans="1:8">
+      <c r="A18" s="1" t="n">
         <v>17</v>
       </c>
-      <c r="B18" s="4" t="s">
+      <c r="B18" s="2" t="s">
         <v>181</v>
       </c>
-      <c r="C18" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D18" s="5" t="s">
+      <c r="C18" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D18" s="6" t="s">
         <v>147</v>
       </c>
-      <c r="E18" s="6" t="s">
+      <c r="E18" s="3" t="s">
         <v>182</v>
       </c>
       <c r="F18" t="n">
@@ -3799,4 +3894,504 @@
   </hyperlinks>
   <pageMargins bottom="1" footer="0.511805555555556" header="0.511805555555556" left="0.75" right="0.75" top="1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="$A1:$XFD3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="0"/>
+  <cols>
+    <col customWidth="1" max="2" min="2" style="4" width="19.625"/>
+    <col customWidth="1" max="4" min="4" style="4" width="13.125"/>
+    <col customWidth="1" max="5" min="5" style="4" width="40"/>
+    <col customWidth="1" max="6" min="6" style="4" width="13.625"/>
+    <col customWidth="1" max="7" min="7" style="4" width="82.5"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="19" r="2" s="4" spans="1:8">
+      <c r="A2" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="F2" s="1" t="n">
+        <v>10001</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="27" r="3" s="4" spans="1:8">
+      <c r="A3" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" t="s">
+        <v>184</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="F3" t="n">
+        <v>10001</v>
+      </c>
+      <c r="G3" t="s">
+        <v>186</v>
+      </c>
+      <c r="H3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="27" r="4" s="4" spans="1:8">
+      <c r="A4" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" t="s">
+        <v>184</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="F4" t="n">
+        <v>20207</v>
+      </c>
+      <c r="G4" t="s">
+        <v>186</v>
+      </c>
+      <c r="H4" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="27" r="5" s="4" spans="1:8">
+      <c r="A5" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D5" t="s">
+        <v>184</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="F5" t="n">
+        <v>10001</v>
+      </c>
+      <c r="G5" t="s">
+        <v>191</v>
+      </c>
+      <c r="H5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="27" r="6" s="4" spans="1:8">
+      <c r="A6" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D6" t="s">
+        <v>184</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>193</v>
+      </c>
+      <c r="F6" t="n">
+        <v>20207</v>
+      </c>
+      <c r="G6" t="s">
+        <v>191</v>
+      </c>
+      <c r="H6" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="27" r="7" s="4" spans="1:8">
+      <c r="A7" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D7" t="s">
+        <v>184</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>195</v>
+      </c>
+      <c r="F7" t="n">
+        <v>10001</v>
+      </c>
+      <c r="G7" t="s">
+        <v>196</v>
+      </c>
+      <c r="H7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="27" r="8" s="4" spans="1:8">
+      <c r="A8" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D8" t="s">
+        <v>184</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>198</v>
+      </c>
+      <c r="F8" t="n">
+        <v>20207</v>
+      </c>
+      <c r="G8" t="s">
+        <v>199</v>
+      </c>
+      <c r="H8" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="27" r="9" s="4" spans="1:8">
+      <c r="A9" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D9" t="s">
+        <v>184</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>201</v>
+      </c>
+      <c r="F9" t="n">
+        <v>20210</v>
+      </c>
+      <c r="G9" t="s">
+        <v>202</v>
+      </c>
+      <c r="H9" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="27" r="10" s="4" spans="1:8">
+      <c r="A10" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D10" t="s">
+        <v>184</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="F10" t="n">
+        <v>20211</v>
+      </c>
+      <c r="G10" t="s">
+        <v>205</v>
+      </c>
+      <c r="H10" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="27" r="11" s="4" spans="1:8">
+      <c r="A11" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D11" t="s">
+        <v>184</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="F11" t="n">
+        <v>20211</v>
+      </c>
+      <c r="G11" t="s">
+        <v>205</v>
+      </c>
+      <c r="H11" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="27" r="12" s="4" spans="1:8">
+      <c r="A12" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D12" t="s">
+        <v>184</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>209</v>
+      </c>
+      <c r="F12" t="n">
+        <v>20211</v>
+      </c>
+      <c r="G12" t="s">
+        <v>205</v>
+      </c>
+      <c r="H12" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="27" r="13" s="4" spans="1:8">
+      <c r="A13" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D13" t="s">
+        <v>184</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>211</v>
+      </c>
+      <c r="F13" t="n">
+        <v>20211</v>
+      </c>
+      <c r="G13" t="s">
+        <v>205</v>
+      </c>
+      <c r="H13" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="A14" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B14" t="s">
+        <v>212</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D14" t="s">
+        <v>184</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>213</v>
+      </c>
+      <c r="F14" t="n">
+        <v>20205</v>
+      </c>
+      <c r="G14" t="s">
+        <v>214</v>
+      </c>
+      <c r="H14" t="s">
+        <v>13</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink display="member/login" ref="D2" r:id="rId1"/>
+  </hyperlinks>
+  <pageMargins bottom="1" footer="0.511805555555556" header="0.511805555555556" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="0" outlineLevelRow="2"/>
+  <cols>
+    <col customWidth="1" max="2" min="2" style="4" width="25.375"/>
+    <col customWidth="1" max="4" min="4" style="4" width="45"/>
+    <col customWidth="1" max="5" min="5" style="4" width="46.125"/>
+    <col customWidth="1" max="6" min="6" style="4" width="17.125"/>
+    <col customWidth="1" max="7" min="7" style="4" width="17.25"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="19" r="2" s="4" spans="1:8">
+      <c r="A2" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="F2" s="1" t="n">
+        <v>10001</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="27" r="3" s="4" spans="1:8">
+      <c r="A3" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" t="s">
+        <v>217</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>218</v>
+      </c>
+      <c r="F3" t="n">
+        <v>10001</v>
+      </c>
+      <c r="G3" t="s">
+        <v>220</v>
+      </c>
+      <c r="H3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink display="member/login" ref="D2" r:id="rId1"/>
+  </hyperlinks>
+  <pageMargins bottom="1" footer="0.511805555555556" header="0.511805555555556" left="0.75" right="0.75" top="1"/>
+</worksheet>
 </file>